--- a/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/09,25/15,09,25 Ост СЫР филиалы/заказ СЫРЫ от 17,09,25 на 22,09,25.xlsx
+++ b/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/09,25/15,09,25 Ост СЫР филиалы/заказ СЫРЫ от 17,09,25 на 22,09,25.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино СЫР\OrderCheeseInForm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Останкино\2025\заказы\филиалы и опт\2025\09,25\15,09,25 Ост СЫР филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6677927-3635-44F0-B8DC-9A6A8A7A0808}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9E934E-1800-49E4-AF85-FF4B474FD2D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -854,8 +854,8 @@
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
